--- a/output.xlsx
+++ b/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,26 +377,6 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>icao</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>lat</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>lon</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>city_name</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -412,26 +392,6 @@
           <t>Aberdeen</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>EGPD</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>57.204167</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-2.200278</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Aberdeen</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -447,26 +407,6 @@
           <t>Anglesey</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>EGOV</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>53.248333</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-4.535278</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Anglesey</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -482,26 +422,6 @@
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>EGBB</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>52.453611</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-1.747778</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Birmingham</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -517,26 +437,6 @@
           <t>Blackpool</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>EGNH</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>53.771389</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-3.028333</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Blackpool</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -552,26 +452,6 @@
           <t>Bournemouth</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>EGHH</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>50.78</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-1.8425</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Bournemouth</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -587,26 +467,6 @@
           <t>Bristol</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>EGGD</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>51.3825</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-2.718889</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Bristol</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -622,26 +482,6 @@
           <t>Campbeltown</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>EGEC</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>55.437222</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-5.686389</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Campbeltown</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -657,26 +497,6 @@
           <t>Cardiff</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>EGFF</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>51.396667</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-3.343333</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Cardiff</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -692,26 +512,6 @@
           <t>Carlisle Lake District Airport</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>EGNC</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>54.9376</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-2.8104</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Carlisle</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -727,26 +527,6 @@
           <t>Cornwall Airport Newquay</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>EGHQ</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>50.443333</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-5.001667</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Newquay</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -762,26 +542,6 @@
           <t>Coventry</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>EGBE</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>52.369722</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-1.479722</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Coventry</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -797,26 +557,6 @@
           <t>Doncaster Sheffield</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>EGCN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>53.475278</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-1.003889</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Doncaster</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -832,26 +572,6 @@
           <t>Dundee</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>EGPN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>56.452222</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-3.025556</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Dundee</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -867,26 +587,6 @@
           <t>Durham Tees Valley</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>EGNV</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>54.509167</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-1.429444</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Durham, England</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -902,26 +602,6 @@
           <t>East Midlands</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>EGNX</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>52.831111</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-1.328056</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Nottingham</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -937,26 +617,6 @@
           <t>Eday</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>EGED</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>59.190556</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-2.772222</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Eday</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -972,26 +632,6 @@
           <t>Edinburgh Airport</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>EGPH</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>55.95</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-3.3725</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Edinburgh</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1007,26 +647,6 @@
           <t>Exeter</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>EGTE</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>50.734444</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-3.413889</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Exeter</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,26 +662,6 @@
           <t>George Best Belfast City</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>EGAC</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>54.618056</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-5.8725</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Belfast</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1077,26 +677,6 @@
           <t>Glasgow</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>EGPF</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>55.871944</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-4.433333</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Glasgow</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1112,26 +692,6 @@
           <t>Glasgow Prestwick</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>EGPK</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>55.509444</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-4.586667</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Glasgow</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1147,26 +707,6 @@
           <t>Heathrow</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>EGLL</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>51.4775</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>-0.461389</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1182,26 +722,6 @@
           <t>Humberside</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>EGNJ</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>53.574444</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-0.350833</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Kirmington</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1217,26 +737,6 @@
           <t>Inverness</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>EGPE</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>57.54</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-4.05</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Inverness</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1252,26 +752,6 @@
           <t>Isle of Man</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>EGNS</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>54.083333</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-4.624167</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Douglas</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1287,26 +767,6 @@
           <t>Kirkwall</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>EGPA</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>58.957778</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-2.905278</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Kirkwall</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1322,26 +782,6 @@
           <t>Leeds Bradford</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>EGNM</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>53.865833</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-1.660556</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Leeds</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1357,26 +797,6 @@
           <t>Liverpool John Lennon</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>EGGP</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>53.333611</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-2.849722</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Liverpool</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1392,26 +812,6 @@
           <t>London Oxford Airport</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>EGTK</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>51.837298</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-1.319298</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Oxford</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1427,26 +827,6 @@
           <t>Luton</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>EGGW</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>51.874722</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-0.368333</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1462,26 +842,6 @@
           <t>Manchester</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>EGCC</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>53.353611</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-2.275</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Manchester</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1497,26 +857,6 @@
           <t>Newcastle</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>EGNT</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>55.0375</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-1.691667</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Newcastle upon Tyne</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1532,26 +872,6 @@
           <t>North Ronaldsay</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>EGEN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>59.3675</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>-2.434444</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>North Ronaldsay</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1567,26 +887,6 @@
           <t>Papa Westray</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>EGEP</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>59.351389</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>-2.9</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Papa Westray</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1602,26 +902,6 @@
           <t>Plymouth City</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>EGHD</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>50.422778</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>-4.105833</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Plymouth</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1637,26 +917,6 @@
           <t>Sanday</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>EGES</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>59.250278</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-2.575</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Sanday, Orkney</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1672,26 +932,6 @@
           <t>Southampton</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>EGHI</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>50.950278</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-1.356667</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Southampton</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1707,26 +947,6 @@
           <t>Stronsay</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>EGER</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>59.155278</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-2.641944</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Stronsay</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1742,26 +962,6 @@
           <t>Sumburgh</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>EGPB</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>59.878889</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-1.295556</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Shetland Islands</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1777,26 +977,6 @@
           <t>Westray</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>EGEW</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>59.350278</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>-2.95</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Westray</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1808,26 +988,6 @@
         </is>
       </c>
       <c r="C42" t="inlineStr">
-        <is>
-          <t>Wick</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>EGPC</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>58.458889</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>-3.093056</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
         <is>
           <t>Wick</t>
         </is>

--- a/output.xlsx
+++ b/output.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,6 +377,26 @@
           <t>name</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>icao</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>lon</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>city_name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -392,6 +412,26 @@
           <t>Aberdeen</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>EGPD</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.204167</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-2.200278</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -407,6 +447,26 @@
           <t>Anglesey</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>EGOV</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>53.248333</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-4.535278</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Anglesey</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -422,6 +482,26 @@
           <t>Birmingham</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EGBB</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.453611</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1.747778</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -437,6 +517,26 @@
           <t>Blackpool</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>EGNH</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.771389</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-3.028333</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -452,6 +552,26 @@
           <t>Bournemouth</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>EGHH</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-1.8425</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -467,6 +587,26 @@
           <t>Bristol</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>EGGD</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>51.3825</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-2.718889</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bristol</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -482,6 +622,26 @@
           <t>Campbeltown</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EGEC</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.437222</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-5.686389</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Campbeltown</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -497,6 +657,26 @@
           <t>Cardiff</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EGFF</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>51.396667</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-3.343333</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cardiff</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -512,6 +692,26 @@
           <t>Carlisle Lake District Airport</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>EGNC</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>54.9376</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-2.8104</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Carlisle</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -527,6 +727,26 @@
           <t>Cornwall Airport Newquay</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>EGHQ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.443333</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-5.001667</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Newquay</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -542,6 +762,26 @@
           <t>Coventry</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>EGBE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>52.369722</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-1.479722</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Coventry</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -557,6 +797,26 @@
           <t>Doncaster Sheffield</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>EGCN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.475278</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-1.003889</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Doncaster</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -572,6 +832,26 @@
           <t>Dundee</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>EGPN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>56.452222</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-3.025556</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Dundee</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -587,6 +867,26 @@
           <t>Durham Tees Valley</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EGNV</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>54.509167</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-1.429444</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Durham, England</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -602,6 +902,26 @@
           <t>East Midlands</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EGNX</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>52.831111</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-1.328056</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -617,6 +937,26 @@
           <t>Eday</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>EGED</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>59.190556</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-2.772222</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Eday</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -632,6 +972,26 @@
           <t>Edinburgh Airport</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>EGPH</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-3.3725</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Edinburgh</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -647,6 +1007,26 @@
           <t>Exeter</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>EGTE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>50.734444</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-3.413889</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Exeter</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -662,6 +1042,26 @@
           <t>George Best Belfast City</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>EGAC</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>54.618056</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-5.8725</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -677,6 +1077,26 @@
           <t>Glasgow</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>EGPF</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>55.871944</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-4.433333</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Glasgow</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -692,6 +1112,26 @@
           <t>Glasgow Prestwick</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>EGPK</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.509444</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-4.586667</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Glasgow</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -707,6 +1147,26 @@
           <t>Heathrow</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>EGLL</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>51.4775</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-0.461389</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -722,6 +1182,26 @@
           <t>Humberside</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>EGNJ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>53.574444</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-0.350833</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Kirmington</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -737,6 +1217,26 @@
           <t>Inverness</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>EGPE</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-4.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Inverness</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -752,6 +1252,26 @@
           <t>Isle of Man</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>EGNS</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>54.083333</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-4.624167</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Douglas</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -767,6 +1287,26 @@
           <t>Kirkwall</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>EGPA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>58.957778</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-2.905278</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Kirkwall</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -782,6 +1322,26 @@
           <t>Leeds Bradford</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>EGNM</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>53.865833</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-1.660556</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -797,6 +1357,26 @@
           <t>Liverpool John Lennon</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>EGGP</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>53.333611</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-2.849722</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -812,6 +1392,26 @@
           <t>London Oxford Airport</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>EGTK</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>51.837298</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-1.319298</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Oxford</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -827,6 +1427,26 @@
           <t>Luton</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>EGGW</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>51.874722</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-0.368333</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -842,6 +1462,26 @@
           <t>Manchester</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>EGCC</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>53.353611</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-2.275</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Manchester</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -857,6 +1497,26 @@
           <t>Newcastle</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>EGNT</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>55.0375</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-1.691667</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Newcastle upon Tyne</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -872,6 +1532,26 @@
           <t>North Ronaldsay</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>EGEN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>59.3675</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-2.434444</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>North Ronaldsay</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -887,6 +1567,26 @@
           <t>Papa Westray</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>EGEP</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>59.351389</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-2.9</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Papa Westray</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -902,6 +1602,26 @@
           <t>Plymouth City</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>EGHD</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>50.422778</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-4.105833</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Plymouth</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -917,6 +1637,26 @@
           <t>Sanday</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>EGES</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>59.250278</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-2.575</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Sanday, Orkney</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -932,6 +1672,26 @@
           <t>Southampton</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>EGHI</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>50.950278</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-1.356667</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -947,6 +1707,26 @@
           <t>Stronsay</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>EGER</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>59.155278</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-2.641944</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Stronsay</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -962,6 +1742,26 @@
           <t>Sumburgh</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>EGPB</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>59.878889</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-1.295556</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Shetland Islands</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -977,6 +1777,26 @@
           <t>Westray</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>EGEW</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>59.350278</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-2.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Westray</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -988,6 +1808,26 @@
         </is>
       </c>
       <c r="C42" t="inlineStr">
+        <is>
+          <t>Wick</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>EGPC</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>58.458889</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-3.093056</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Wick</t>
         </is>
